--- a/Excel/Djinns/2022.06.20/23.06.2022 DJINNS — загрузка.xlsx
+++ b/Excel/Djinns/2022.06.20/23.06.2022 DJINNS — загрузка.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EFE1DA8-8B9A-4967-987B-CC324911B530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A0DAA3-15A8-4579-A26E-5CE72679EB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B36859C2-4251-41CD-AB35-51E1D6264A0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DB2611C-A0D1-4313-8EE0-1F3EEDEEA777}"/>
   </bookViews>
   <sheets>
     <sheet name="Загрузка" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>general</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{B5A463F4-E15F-4C59-B05C-11698A22EF75}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{E92167CE-396A-4A81-BA10-2B66A93ABAF3}">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
     <t>50-146-29</t>
   </si>
   <si>
-    <t>HFT SURF CAMP</t>
+    <t>HFT Surf Camp</t>
   </si>
   <si>
     <t>Бейсболки</t>
@@ -186,10 +186,10 @@
     <t>да</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT SURF CAMP (бежевый / темно-синий)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT SURF CAMP (бежевый / темно-синий) {white}</t>
+    <t>Бейсболка COASTAL арт. HFT Surf Camp (бежевый / темно-синий)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Surf Camp (бежевый / темно-синий) {white}</t>
   </si>
   <si>
     <t>синий</t>
@@ -201,7 +201,7 @@
     <t>50-145-72</t>
   </si>
   <si>
-    <t>HFT SUN DOWN</t>
+    <t>HFT Sun Down</t>
   </si>
   <si>
     <t>white/black/green</t>
@@ -210,10 +210,10 @@
     <t>черный / белый</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT SUN DOWN (черный / белый)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT SUN DOWN (черный / белый) {white/black/green}</t>
+    <t>Бейсболка COASTAL арт. HFT Sun Down (черный / белый)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Sun Down (черный / белый) {white/black/green}</t>
   </si>
   <si>
     <t>черный</t>
@@ -231,10 +231,10 @@
     <t>черный / зеленый</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT SUN DOWN (черный / зеленый)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT SUN DOWN (черный / зеленый) {brown/green}</t>
+    <t>Бейсболка COASTAL арт. HFT Sun Down (черный / зеленый)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Sun Down (черный / зеленый) {brown/green}</t>
   </si>
   <si>
     <t>50-145-33-00</t>
@@ -243,7 +243,7 @@
     <t>50-144-27</t>
   </si>
   <si>
-    <t>HFT SAMBA</t>
+    <t>HFT Samba</t>
   </si>
   <si>
     <t>slate</t>
@@ -252,10 +252,10 @@
     <t>зеленый / коричневый</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT SAMBA (зеленый / коричневый)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT SAMBA (зеленый / коричневый) {slate}</t>
+    <t>Бейсболка COASTAL арт. HFT Samba (зеленый / коричневый)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Samba (зеленый / коричневый) {slate}</t>
   </si>
   <si>
     <t>зеленый</t>
@@ -267,7 +267,7 @@
     <t>50-143-11</t>
   </si>
   <si>
-    <t>HFT RIDE TIDE</t>
+    <t>HFT Ride Tide</t>
   </si>
   <si>
     <t>beige</t>
@@ -276,10 +276,10 @@
     <t>белый / зеленый</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT RIDE TIDE (белый / зеленый)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT RIDE TIDE (белый / зеленый) {beige}</t>
+    <t>Бейсболка COASTAL арт. HFT Ride Tide (белый / зеленый)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Ride Tide (белый / зеленый) {beige}</t>
   </si>
   <si>
     <t>белый</t>
@@ -291,7 +291,7 @@
     <t>50-142-95</t>
   </si>
   <si>
-    <t>HFT RETRO BEAUTY</t>
+    <t>HFT Retro Beauty</t>
   </si>
   <si>
     <t>red/grey</t>
@@ -300,10 +300,10 @@
     <t>красный / серый</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT RETRO BEAUTY (красный / серый)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT RETRO BEAUTY (красный / серый) {red/grey}</t>
+    <t>Бейсболка COASTAL арт. HFT Retro Beauty (красный / серый)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Retro Beauty (красный / серый) {red/grey}</t>
   </si>
   <si>
     <t>красный</t>
@@ -315,7 +315,7 @@
     <t>50-141-13</t>
   </si>
   <si>
-    <t>HFT SURFBULLY</t>
+    <t>HFT Surfbully</t>
   </si>
   <si>
     <t>d.brown/orange</t>
@@ -324,10 +324,10 @@
     <t>оранжевый</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT SURFBULLY (оранжевый)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT SURFBULLY (оранжевый) {d.brown/orange}</t>
+    <t>Бейсболка COASTAL арт. HFT Surfbully (оранжевый)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Surfbully (оранжевый) {d.brown/orange}</t>
   </si>
   <si>
     <t>50-141-13-00</t>
@@ -336,7 +336,7 @@
     <t>50-140-20</t>
   </si>
   <si>
-    <t>HFT BEETLE</t>
+    <t>HFT Beetle</t>
   </si>
   <si>
     <t>sun yellow</t>
@@ -345,10 +345,10 @@
     <t>желтый</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT BEETLE (желтый)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT BEETLE (желтый) {sun yellow}</t>
+    <t>Бейсболка COASTAL арт. HFT Beetle (желтый)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Beetle (желтый) {sun yellow}</t>
   </si>
   <si>
     <t>50-140-20-00</t>
@@ -363,10 +363,10 @@
     <t>коричневый</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT BEETLE (коричневый)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT BEETLE (коричневый) {dark brown}</t>
+    <t>Бейсболка COASTAL арт. HFT Beetle (коричневый)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Beetle (коричневый) {dark brown}</t>
   </si>
   <si>
     <t>50-140-14-00</t>
@@ -381,10 +381,10 @@
     <t>темно-серый</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT BEETLE (темно-серый)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT BEETLE (темно-серый) {charcoal}</t>
+    <t>Бейсболка COASTAL арт. HFT Beetle (темно-серый)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Beetle (темно-серый) {charcoal}</t>
   </si>
   <si>
     <t>серый</t>
@@ -396,7 +396,7 @@
     <t>50-139-70</t>
   </si>
   <si>
-    <t>HFT C-BULL</t>
+    <t>HFT C-Bull</t>
   </si>
   <si>
     <t>navy/white</t>
@@ -405,10 +405,10 @@
     <t>белый / темно-синий</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT C-BULL (белый / темно-синий)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT C-BULL (белый / темно-синий) {navy/white}</t>
+    <t>Бейсболка COASTAL арт. HFT C-Bull (белый / темно-синий)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT C-Bull (белый / темно-синий) {navy/white}</t>
   </si>
   <si>
     <t>50-139-70-00</t>
@@ -417,7 +417,7 @@
     <t>50-138-50</t>
   </si>
   <si>
-    <t>HFT SURFBEETLE</t>
+    <t>HFT Surfbeetle</t>
   </si>
   <si>
     <t>orange</t>
@@ -426,10 +426,10 @@
     <t>оранжевый / бежевый</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT SURFBEETLE (оранжевый / бежевый)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT SURFBEETLE (оранжевый / бежевый) {orange}</t>
+    <t>Бейсболка COASTAL арт. HFT Surfbeetle (оранжевый / бежевый)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Surfbeetle (оранжевый / бежевый) {orange}</t>
   </si>
   <si>
     <t>50-138-50-00</t>
@@ -438,7 +438,7 @@
     <t>50-137-08</t>
   </si>
   <si>
-    <t>HFT LOW BEETLE</t>
+    <t>HFT Low Beetle</t>
   </si>
   <si>
     <t>grey</t>
@@ -447,10 +447,10 @@
     <t>серый / бордовый</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT LOW BEETLE (серый / бордовый)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT LOW BEETLE (серый / бордовый) {grey}</t>
+    <t>Бейсболка COASTAL арт. HFT Low Beetle (серый / бордовый)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Low Beetle (серый / бордовый) {grey}</t>
   </si>
   <si>
     <t>50-137-08-00</t>
@@ -459,7 +459,7 @@
     <t>50-136-46</t>
   </si>
   <si>
-    <t>HFT AIR COOLED</t>
+    <t>HFT Air Cooled</t>
   </si>
   <si>
     <t>white/lt.blue/olive</t>
@@ -468,10 +468,10 @@
     <t>белый / голубой</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT AIR COOLED (белый / голубой)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT AIR COOLED (белый / голубой) {white/lt.blue/olive}</t>
+    <t>Бейсболка COASTAL арт. HFT Air Cooled (белый / голубой)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Air Cooled (белый / голубой) {white/lt.blue/olive}</t>
   </si>
   <si>
     <t>50-136-46-00</t>
@@ -486,10 +486,10 @@
     <t>оранжевый / черный</t>
   </si>
   <si>
-    <t>Бейсболка COASTAL арт. HFT AIR COOLED (оранжевый / черный)</t>
-  </si>
-  <si>
-    <t>Бейсболка COASTAL арт. HFT AIR COOLED (оранжевый / черный) {mustard/brown/white}</t>
+    <t>Бейсболка COASTAL арт. HFT Air Cooled (оранжевый / черный)</t>
+  </si>
+  <si>
+    <t>Бейсболка COASTAL арт. HFT Air Cooled (оранжевый / черный) {mustard/brown/white}</t>
   </si>
   <si>
     <t>50-136-13-00</t>
@@ -2352,8 +2352,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 8" xfId="1" xr:uid="{32C2089D-598F-4BC8-9D8D-9FD1E6D2E338}"/>
-    <cellStyle name="Финансовый 3" xfId="2" xr:uid="{D998D412-F686-44AA-83FA-B52478A99F92}"/>
+    <cellStyle name="Обычный 8" xfId="1" xr:uid="{C6A1E7CD-BF75-450B-B8B2-DC16BA0670D5}"/>
+    <cellStyle name="Финансовый 3" xfId="2" xr:uid="{FB8100D5-89B9-4E48-A59C-4DDC61E3919D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2719,15 +2719,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96FF400-37B8-446C-8F13-AA0F42F9FA6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBB63C0-1D3E-41F5-8BF3-F6C74B4AE60B}">
   <sheetPr codeName="Лист28">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:Y456"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA46" sqref="AA46:AS54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS27" sqref="AS27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20548,7 +20548,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X1:X1048576" xr:uid="{EFDAD820-3FDB-41A9-BA49-B90E262B552A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X1:X1048576" xr:uid="{99F6EB7E-8C18-436E-AD95-0383A2D615E2}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
